--- a/marks.xlsx
+++ b/marks.xlsx
@@ -20,7 +20,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">Semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prelims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final</t>
+  </si>
   <si>
     <t xml:space="preserve">Physics</t>
   </si>
@@ -47,11 +62,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,6 +83,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,8 +134,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -133,64 +160,138 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>75</v>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>80</v>
+        <v>68</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>70</v>
+        <v>97</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
-        <f aca="false">SUM(B1:B5)</f>
+        <v>70</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">SUM(B2:B6)</f>
         <v>390</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">SUM(C2:C6)</f>
+        <v>374</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">SUM(D2:D6)</f>
+        <v>395</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">SUM(E2:E6)</f>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
